--- a/exports/2023_transactions.xlsx
+++ b/exports/2023_transactions.xlsx
@@ -7,8 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="2月" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="3月" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="1月" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -432,329 +431,6 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="10" customWidth="1" min="1" max="1"/>
-    <col width="22.8" customWidth="1" min="2" max="2"/>
-    <col width="16.8" customWidth="1" min="3" max="3"/>
-    <col width="10" customWidth="1" min="4" max="4"/>
-    <col width="10" customWidth="1" min="5" max="5"/>
-    <col width="10" customWidth="1" min="6" max="6"/>
-    <col width="10" customWidth="1" min="7" max="7"/>
-    <col width="10" customWidth="1" min="8" max="8"/>
-    <col width="14.4" customWidth="1" min="9" max="9"/>
-    <col width="19.2" customWidth="1" min="10" max="10"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>序号</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>创建时间</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>项目名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>类型</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>支付方式</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>阶段</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>状态</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>备注（收入）</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>支出详情（支出）</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2025-04-14 09:42:42</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>双面打印机设计</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>900.00</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>收入</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>微信</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>未结项</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2025-04-14 09:43:24</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>双面打印机设计</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>9000.00</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>收入</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>微信</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>第二阶段</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>未结项</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2025-04-14 09:45:26</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>双面打印机设计</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>5000.00</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>收入</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>微信</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>第四阶段</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>已结项</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2025-04-14 09:47:20</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>矿泉水瓶子</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>9000.00</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>收入</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>微信</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>未结项</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr"/>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>总收入</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>23900.00</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr"/>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>总支出</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr"/>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>净收入</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>23900.00</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr"/>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>总额</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>23900.00元</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -833,17 +509,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-04-14 09:43:47</t>
+          <t>2025-04-14 18:34:14</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>双面打印机设计</t>
+          <t>内饰扶手箱设计</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2000.00</t>
+          <t>9000.00</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -856,11 +532,7 @@
           <t>微信</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>第二阶段</t>
-        </is>
-      </c>
+      <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr">
         <is>
           <t>未结项</t>
@@ -884,7 +556,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>2000.00</t>
+          <t>9000.00</t>
         </is>
       </c>
       <c r="J3" t="inlineStr"/>
@@ -924,7 +596,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>2000.00</t>
+          <t>9000.00</t>
         </is>
       </c>
       <c r="J5" t="inlineStr"/>
@@ -944,7 +616,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>2000.00元</t>
+          <t>9000.00元</t>
         </is>
       </c>
       <c r="J6" t="inlineStr"/>
